--- a/biology/Biologie cellulaire et moléculaire/Récepteur_de_la_vitamine_D/Récepteur_de_la_vitamine_D.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_de_la_vitamine_D/Récepteur_de_la_vitamine_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_vitamine_D</t>
+          <t>Récepteur_de_la_vitamine_D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le récepteur de la vitamine D (VDR) est une protéine de la superfamille des récepteurs nucléaires liant naturellement la vitamine D. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_vitamine_D</t>
+          <t>Récepteur_de_la_vitamine_D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_vitamine_D</t>
+          <t>Récepteur_de_la_vitamine_D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il intéragit avec la protéine RUNX1[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intéragit avec la protéine RUNX1
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_vitamine_D</t>
+          <t>Récepteur_de_la_vitamine_D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène VDR code pour le récepteur hormonal nucléaire de la vitamine D. 
 L'agoniste naturel le plus puissant est le calcitriol (1,25-dihydroxycholécalciférol) et l'homologue de la vitamine D2 (ercalcitriol, 1-alpha,25-dihydroergocalciférol) est également un activateur puissant. 
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_vitamine_D</t>
+          <t>Récepteur_de_la_vitamine_D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
